--- a/historical_report/warning message&suggestion.xlsx
+++ b/historical_report/warning message&suggestion.xlsx
@@ -1,100 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24411"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCL\COMP0111\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_1F3A86B2D1565C8D3A41070C8EADA42A3FB74D0F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50D25483-9C51-41F5-9FAC-F6BAB2901B57}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t>warning code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>detailed help</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>suggestions to fix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>example</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>message_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DPCT1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>An error handling if-stmt was detected but could not be rewritten. See the details in the resulting file comments.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>This warning is generated when the Intel® DPC++ Compatibility Tool detects more complex error handling than it considers safe to remove.
 The CUDA* API returns error codes that are consumed by the program logic. SYCL* uses exceptions to report errors and does not return the error code.
 When the error handling logic in the original code is simple (for example, a print error message and exit), the code is removed in the resulting Data Parallel C++ (DPC++) application. The expectation is that SYCL throws an exception, which is handled with the printing of an exception message and exiting (the exception handler is generated automatically by the Intel® DPC++ Compatibility Tool).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Review the error handling if- statement and try to rewrite it to use an exception handler instead.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if (err != 0) {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5, 32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DPCT1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The statement could not be removed. See the details in the resulting file comments</t>
   </si>
   <si>
     <t>The Intel® DPC++ Compatibility Tool was not able to remove the code in the then clause of if-stmt. See DPCT1000.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>See DPCT1000.</t>
@@ -107,43 +73,34 @@
     std::cerr &lt;&lt; "CUDA error after initalisation" &lt;&lt; std::endl;
     exit(EXIT_FAILURE);
   }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DPCT1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The migrated API does not return an error code, so (*, 0) is inserted. You may need to rewrite this code.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Typically, this happens because the CUDA* API returns an error code and then it is consumed by the program logic.
 SYCL* uses exceptions to report errors and does not return the error code.
 The Intel® DPC++ Compatibility Tool inserts a (*, 0) operator, so that the resulting application can be compiled. This operator returns 0 and is inserted if the return code is expected by the program logic and the new API does not return it. You should review all such places in the code.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>If in a DPC++ application you:
 - Do not need the code that consumes the error code, remove the code and the (*, 0) operator.
 - Need the code that consumes the error code, try to replace it with an exception handling code and use your logic in an exception handler.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gpucheck((sycl::free(newsb, q_ct1), 0));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4, 15, 25, 72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DPCT1004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Compatible DPC++ code could not be generated.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Contact Support for help.</t>
@@ -153,70 +110,55 @@
   </si>
   <si>
     <t>ushort x = sycl::rint(__saturatef(v.x()) * 31.0f);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DPCT1007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Migration of this API is not supported by the Intel® DPC++ Compatibility Tool.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Contact Support for help.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>This kind of code requires manual migration to DPC++.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>__threadfence();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>52, 68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DPCT1008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The clock function is not defined in DPC++. This is a hardware-specific feature. Consult with your hardware vendor to find a replacement.</t>
   </si>
   <si>
     <t>The clock call was not replaced, because it is not defined by DPC++. Replace this hardware-specific feature with the one offered by your hardware vendor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Consult with your hardware vendor to find a replacement.</t>
   </si>
   <si>
     <t>start = clock();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7, 27, 57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DPCT1009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SYCL uses exceptions to report errors and does not use error codes. The original code was commented out and a warning string was inserted. You may need to rewrite this code.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SYCL* uses exceptions to report errors and does not use error codes. The original code tries to get a string message through the error code, while SYCL does not require such functionality.
 To indicate that the code needs to be updated, a warning string is inserted.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>You may need to rewrite this code.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#define CUERR                                                                  \
@@ -229,41 +171,30 @@
   </si>
   <si>
     <t>36, 63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DPCT1010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SYCL uses exceptions to report errors and does not use error codes. The call was replaced with 0. You may need to rewrite this code.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SYCL* uses exceptions to report errors and does not use error codes. The original code tries to get an error code, while SYCL does not require such functionality. The call was replaced with 0.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You may need to rewrite this code.</t>
   </si>
   <si>
     <t>int err = 0;</t>
   </si>
   <si>
     <t>23, 26, 35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DPCT1011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The tool detected overloaded operators for built-in vector types, which may conflict with the SYCL 1.2.1 standard operators (see 4.10.2.1 Vec interface). The tool inserted a namespace to avoid the conflict. Use SYCL 1.2.1 standard operators instead.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>You may have overloaded operators for vector types such as double2. This resulted in a conflict because overloaded operators with the same signature are also defined in the SYCL* standard. The Intel® DPC++ Compatibility Tool adds the namespace for overloaded operators to differentiate them from the ones defined in SYCL. You may need to rewrite the code.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>namespace dpct_operator_overloading {
@@ -277,42 +208,33 @@
   </si>
   <si>
     <t>DPCT1013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The rounding mode could not be specified and the generated code may have different precision than the original code. Verify the correctness. The SYCL math built-in functions rounding mode is aligned with the OpenCL™ C 1.2 standard.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The rounding mode could not be specified and the generated code may have different precision than the original code. Verify the correctness. The SYCL* math built-in functions rounding mode is aligned with the OpenCL C 1.2 standard.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Review the logic and adjust it.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>float tmp = a[i] / b[i - delta];</t>
   </si>
   <si>
     <t>70, 71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DPCT1017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The &lt;DPC++ API name&gt; call is used instead of the &lt;CUDA API name&gt; call. These two calls do not provide the same functionality. Check the potential precision and/or performance issues for the generated code.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The Intel® DPC++ Compatibility Tool did not find an exact functional equivalent of the function in DPC++, so it used the closest alternative. The replacement may impact your code precision and/or performance. Verify the code correctness/performance.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Verify the code correctness/performance.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s = sycl::sincos(
@@ -321,15 +243,12 @@
   </si>
   <si>
     <t>65, 66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DPCT1032</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A different random number generator is used. You may need to adjust the code.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Intel® oneAPI Math Kernel Library (oneMKL) RNG currently does not support the following engine types:
@@ -340,11 +259,9 @@
 - Philox4x32x10 generator
 - Basic Sobol generator
 - Basic Sobol generator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>You may need to adjust the code.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>template &lt;typename T&gt;
@@ -352,15 +269,12 @@
   </si>
   <si>
     <t>DPCT1039</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The generated code assumes that &lt;parameter name&gt; points to the global memory address space. If it points to a local memory address space, replace &lt;function name&gt; with &lt;function name&gt;.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The Intel® DPC++ Compatibility Tool deduces whether the first parameter of an atomic function points to a global memory address space or a local memory space, using the last assignment’s rvalue of the first parameter of the atomic function. If the last assignment is in an if/while/do while/for statement, the deduction result may be incorrect. You need to verify the generated code to determine if the first parameter of the atomic function actually points to the local memory address space. If it does, then replace the atomic function name with an atomic function name that includes the template parameters, as pointed to in the warning message.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">If the first parameter of an atomic function points to a local memory address space, replace the atomic function name with an atomic function name that includes the template parameters.
@@ -368,6 +282,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">sycl::atomic&lt;int&gt;(sycl::global_ptr&lt;int&gt;(out)).fetch_add(sum); </t>
     </r>
     <r>
@@ -375,7 +295,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>=&gt;</t>
     </r>
@@ -384,33 +304,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> dpct::atomic_fetch_add(out, sum);</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11, 12, 13, 14, 17, 18, 19, 20, 21, 22, 28, 29, 30, 31, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 51, 53, 60, 64, 69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DPCT1049</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The workgroup size passed to the SYCL kernel may exceed the limit. To get the device limit, query info::device::max_work_group_size. Adjust the workgroup size if needed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The workgroup size passed to the SYCL* kernel for SYCL device has a limit (see SYCL 1.2.1 standard, 4.6.4.2 Device information descriptors).
 This warning appears if dimensions of the local range could not all be evaluated, or if the product of the dimensions of the local range is more than 256.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Query info::device::max_work_group_size to define the workgroup size limit for the device you use. If the workgroup size used in the code is below the limit, you can ignore this warning. Otherwise, you need to decrease the workgroup size.
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> q_ct1.submit([&amp;](sycl::handler &amp;cgh) {
@@ -420,52 +334,44 @@
                                        d_x, d_result, item_ct1);
                        });
     });</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1, 2, 3, 8, 16, 24, 49, 56, 61, 62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DPCT1065</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Consider replacing sycl::nd_item::barrier() with sycl::nd_item::barrier(sycl::access::fence_space::local_space) for better performance, if there is no access to global memory .</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The function sycl::nd_item::barrier() ensures correct memory access ordering in the global and local address space. If the kernel function has no memory accesses in the global memory, it is safe to replace sycl::nd_item::barrier() with sycl::nd_item::barrier(sycl::access::fence_space::local_space) for better performance.</t>
   </si>
   <si>
     <t>Replace sycl::nd_item::barrier() with sycl::nd_item::barrier(sycl::access::fence_space::local_space).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>item_ct1.barrier();</t>
   </si>
   <si>
     <t xml:space="preserve">9, 10, 33, 34, 50, 58, 59, </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -473,37 +379,367 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF262626"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -511,9 +747,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -521,36 +999,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -599,7 +1121,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -632,26 +1154,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -684,23 +1189,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -842,557 +1330,353 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29" style="2" customWidth="1"/>
-    <col min="3" max="3" width="69.625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="36.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.625" style="2"/>
+    <col min="1" max="1" width="17.4910714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="69.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="36.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="42" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="130.5">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="140" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="130.5">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="126" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="116.1">
-      <c r="A4" s="1" t="s">
+    <row r="4" ht="112" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="29.1">
-      <c r="A5" s="1" t="s">
+    <row r="5" ht="28" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.5">
-      <c r="A6" s="1" t="s">
+    <row r="6" ht="42" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="75">
-      <c r="A7" s="1" t="s">
+    <row r="7" ht="70" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="104.45" customHeight="1">
-      <c r="A8" s="1" t="s">
+    <row r="8" ht="104.45" customHeight="1" spans="1:6">
+      <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="57.95">
-      <c r="A9" s="1" t="s">
+    <row r="9" ht="70" spans="1:6">
+      <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="1" t="s">
+    </row>
+    <row r="10" ht="154" spans="1:6">
+      <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="144.94999999999999">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="F10" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="101.45">
-      <c r="A11" s="1" t="s">
+    <row r="11" ht="126" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="1" t="s">
+    </row>
+    <row r="12" ht="115.5" customHeight="1" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" ht="115.5" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="1" t="s">
+    <row r="13" ht="140" spans="1:6">
+      <c r="A13" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="130.5">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="F13" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="135">
-      <c r="A14" s="1" t="s">
+    <row r="14" ht="126" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="1" t="s">
+    </row>
+    <row r="15" ht="182" spans="1:6">
+      <c r="A15" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" ht="130.5">
-      <c r="A15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="1" t="s">
+    <row r="16" ht="98" spans="1:6">
+      <c r="A16" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="120">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A16">
+  <sortState ref="A2:A16">
     <sortCondition ref="A2"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010078B57F8E3BCFAD4C9AB91DC735A7495E" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="79524f1f476b6d86e396e802e67698b1">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="742903cd-b80a-47e3-8b40-5135074bb8ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58849846e9d3b9bdc38bf3dedef9e93f" ns2:_="">
-    <xsd:import namespace="742903cd-b80a-47e3-8b40-5135074bb8ee"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="742903cd-b80a-47e3-8b40-5135074bb8ee" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{593A108D-E03B-4544-AF6D-EE9E65B13D81}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7C76165-C2F3-4805-B416-3BD03E39537E}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32D72E51-B4C5-48A3-B008-F6731B1C75EE}"/>
 </file>